--- a/ut1/Labs/algoritmos_cpu.xlsx
+++ b/ut1/Labs/algoritmos_cpu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iván JU\Documents\repo\asir1\ISO\ut1\Contenidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\curso1718\repoasir1\ISO\ut1\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RR" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="FCFS2" sheetId="5" r:id="rId6"/>
     <sheet name="SPN-SJF2" sheetId="6" r:id="rId7"/>
     <sheet name="RR3-q=1" sheetId="7" r:id="rId8"/>
+    <sheet name="template" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="31">
   <si>
     <t>Proceso</t>
   </si>
@@ -106,6 +107,24 @@
   </si>
   <si>
     <t>Tr =Tiempo Respuesta = Tin - Tllegada</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>Tll</t>
+  </si>
+  <si>
+    <t>Tser</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>Tfin</t>
+  </si>
+  <si>
+    <t>Sec.</t>
   </si>
 </sst>
 </file>
@@ -191,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -256,11 +275,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,6 +377,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4361,8 +4449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:AI8"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4929,4 +5017,514 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AO18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="35" width="3.21875" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" customWidth="1"/>
+    <col min="37" max="43" width="6.21875" customWidth="1"/>
+    <col min="44" max="44" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:41" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="AO7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="4"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+    </row>
+    <row r="11" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+    </row>
+    <row r="12" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+    </row>
+    <row r="13" spans="1:41" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35">
+        <v>0</v>
+      </c>
+      <c r="B13" s="28">
+        <v>1</v>
+      </c>
+      <c r="C13" s="28">
+        <v>2</v>
+      </c>
+      <c r="D13" s="28">
+        <v>3</v>
+      </c>
+      <c r="E13" s="28">
+        <v>4</v>
+      </c>
+      <c r="F13" s="28">
+        <v>5</v>
+      </c>
+      <c r="G13" s="28">
+        <v>6</v>
+      </c>
+      <c r="H13" s="28">
+        <v>7</v>
+      </c>
+      <c r="I13" s="28">
+        <v>8</v>
+      </c>
+      <c r="J13" s="28">
+        <v>9</v>
+      </c>
+      <c r="K13" s="28">
+        <v>10</v>
+      </c>
+      <c r="L13" s="28">
+        <v>11</v>
+      </c>
+      <c r="M13" s="28">
+        <v>12</v>
+      </c>
+      <c r="N13" s="28">
+        <v>13</v>
+      </c>
+      <c r="O13" s="28">
+        <v>14</v>
+      </c>
+      <c r="P13" s="28">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>16</v>
+      </c>
+      <c r="R13" s="28">
+        <v>17</v>
+      </c>
+      <c r="S13" s="28">
+        <v>18</v>
+      </c>
+      <c r="T13" s="28">
+        <v>19</v>
+      </c>
+      <c r="U13" s="28">
+        <v>20</v>
+      </c>
+      <c r="V13" s="28">
+        <v>21</v>
+      </c>
+      <c r="W13" s="28">
+        <v>22</v>
+      </c>
+      <c r="X13" s="28">
+        <v>23</v>
+      </c>
+      <c r="Y13" s="28">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="28">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="28">
+        <v>26</v>
+      </c>
+      <c r="AB13" s="28">
+        <v>27</v>
+      </c>
+      <c r="AC13" s="28">
+        <v>28</v>
+      </c>
+      <c r="AD13" s="28">
+        <v>29</v>
+      </c>
+      <c r="AE13" s="28">
+        <v>30</v>
+      </c>
+      <c r="AF13" s="28">
+        <v>31</v>
+      </c>
+      <c r="AG13" s="28">
+        <v>32</v>
+      </c>
+      <c r="AH13" s="28">
+        <v>33</v>
+      </c>
+      <c r="AI13" s="28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+    </row>
+    <row r="15" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+    </row>
+    <row r="16" spans="1:41" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+    </row>
+    <row r="17" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+    </row>
+    <row r="18" spans="2:35" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ut1/Labs/algoritmos_cpu.xlsx
+++ b/ut1/Labs/algoritmos_cpu.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="35">
   <si>
     <t>Proceso</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Tll</t>
   </si>
   <si>
-    <t>Tser</t>
-  </si>
-  <si>
     <t>Tin</t>
   </si>
   <si>
@@ -126,12 +123,27 @@
   <si>
     <t>Sec.</t>
   </si>
+  <si>
+    <t>Pu=</t>
+  </si>
+  <si>
+    <t>Th=</t>
+  </si>
+  <si>
+    <t>Tret</t>
+  </si>
+  <si>
+    <t>Tres</t>
+  </si>
+  <si>
+    <t>Ts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +196,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -329,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -382,7 +402,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -396,6 +415,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,7 +1237,7 @@
   <dimension ref="A4:AL17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:AI8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5021,10 +5044,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AO18"/>
+  <dimension ref="A4:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5036,28 +5059,28 @@
     <col min="44" max="44" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:41" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L5" s="3" t="s">
+    <row r="4" spans="1:36" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:36" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>10</v>
+      <c r="Q5" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -5066,7 +5089,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:36" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L6" s="5" t="s">
         <v>5</v>
       </c>
@@ -5079,11 +5102,13 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L7" s="5" t="s">
         <v>6</v>
       </c>
@@ -5096,14 +5121,13 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="AO7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:36" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L8" s="5" t="s">
         <v>7</v>
       </c>
@@ -5114,7 +5138,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:36" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L9" s="5" t="s">
         <v>8</v>
       </c>
@@ -5125,7 +5149,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H10" s="4"/>
       <c r="I10" s="12"/>
       <c r="J10" s="10"/>
@@ -5158,20 +5182,20 @@
       <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
     </row>
-    <row r="11" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="12"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -5191,192 +5215,190 @@
       <c r="AI11" s="10"/>
       <c r="AJ11" s="10"/>
     </row>
-    <row r="12" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+    </row>
+    <row r="13" spans="1:36" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35">
+        <v>0</v>
+      </c>
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="35">
+        <v>2</v>
+      </c>
+      <c r="E13" s="35">
+        <v>3</v>
+      </c>
+      <c r="F13" s="35">
+        <v>4</v>
+      </c>
+      <c r="G13" s="35">
+        <v>5</v>
+      </c>
+      <c r="H13" s="35">
+        <v>6</v>
+      </c>
+      <c r="I13" s="35">
+        <v>7</v>
+      </c>
+      <c r="J13" s="35">
+        <v>8</v>
+      </c>
+      <c r="K13" s="35">
+        <v>9</v>
+      </c>
+      <c r="L13" s="35">
+        <v>10</v>
+      </c>
+      <c r="M13" s="35">
+        <v>11</v>
+      </c>
+      <c r="N13" s="35">
+        <v>12</v>
+      </c>
+      <c r="O13" s="35">
+        <v>13</v>
+      </c>
+      <c r="P13" s="35">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>15</v>
+      </c>
+      <c r="R13" s="35">
+        <v>16</v>
+      </c>
+      <c r="S13" s="35">
+        <v>17</v>
+      </c>
+      <c r="T13" s="35">
+        <v>18</v>
+      </c>
+      <c r="U13" s="35">
+        <v>19</v>
+      </c>
+      <c r="V13" s="35">
+        <v>20</v>
+      </c>
+      <c r="W13" s="35">
+        <v>21</v>
+      </c>
+      <c r="X13" s="35">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="35">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="35">
+        <v>24</v>
+      </c>
+      <c r="AA13" s="35">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="35">
+        <v>26</v>
+      </c>
+      <c r="AC13" s="35">
+        <v>27</v>
+      </c>
+      <c r="AD13" s="35">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="35">
+        <v>29</v>
+      </c>
+      <c r="AF13" s="35">
         <v>30</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-    </row>
-    <row r="13" spans="1:41" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35">
-        <v>0</v>
-      </c>
-      <c r="B13" s="28">
-        <v>1</v>
-      </c>
-      <c r="C13" s="28">
-        <v>2</v>
-      </c>
-      <c r="D13" s="28">
-        <v>3</v>
-      </c>
-      <c r="E13" s="28">
-        <v>4</v>
-      </c>
-      <c r="F13" s="28">
-        <v>5</v>
-      </c>
-      <c r="G13" s="28">
-        <v>6</v>
-      </c>
-      <c r="H13" s="28">
-        <v>7</v>
-      </c>
-      <c r="I13" s="28">
-        <v>8</v>
-      </c>
-      <c r="J13" s="28">
-        <v>9</v>
-      </c>
-      <c r="K13" s="28">
-        <v>10</v>
-      </c>
-      <c r="L13" s="28">
-        <v>11</v>
-      </c>
-      <c r="M13" s="28">
-        <v>12</v>
-      </c>
-      <c r="N13" s="28">
-        <v>13</v>
-      </c>
-      <c r="O13" s="28">
-        <v>14</v>
-      </c>
-      <c r="P13" s="28">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="28">
-        <v>16</v>
-      </c>
-      <c r="R13" s="28">
-        <v>17</v>
-      </c>
-      <c r="S13" s="28">
-        <v>18</v>
-      </c>
-      <c r="T13" s="28">
-        <v>19</v>
-      </c>
-      <c r="U13" s="28">
-        <v>20</v>
-      </c>
-      <c r="V13" s="28">
-        <v>21</v>
-      </c>
-      <c r="W13" s="28">
-        <v>22</v>
-      </c>
-      <c r="X13" s="28">
-        <v>23</v>
-      </c>
-      <c r="Y13" s="28">
-        <v>24</v>
-      </c>
-      <c r="Z13" s="28">
-        <v>25</v>
-      </c>
-      <c r="AA13" s="28">
-        <v>26</v>
-      </c>
-      <c r="AB13" s="28">
-        <v>27</v>
-      </c>
-      <c r="AC13" s="28">
-        <v>28</v>
-      </c>
-      <c r="AD13" s="28">
-        <v>29</v>
-      </c>
-      <c r="AE13" s="28">
-        <v>30</v>
-      </c>
-      <c r="AF13" s="28">
+      <c r="AG13" s="35">
         <v>31</v>
       </c>
-      <c r="AG13" s="28">
+      <c r="AH13" s="35">
         <v>32</v>
       </c>
-      <c r="AH13" s="28">
+      <c r="AI13" s="35">
         <v>33</v>
       </c>
-      <c r="AI13" s="28">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:36" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27"/>
     </row>
-    <row r="15" spans="1:41" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -5413,7 +5435,7 @@
       <c r="AH15" s="25"/>
       <c r="AI15" s="25"/>
     </row>
-    <row r="16" spans="1:41" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>

--- a/ut1/Labs/algoritmos_cpu.xlsx
+++ b/ut1/Labs/algoritmos_cpu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="RR" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="SPN-SJF2" sheetId="6" r:id="rId7"/>
     <sheet name="RR3-q=1" sheetId="7" r:id="rId8"/>
     <sheet name="template" sheetId="10" r:id="rId9"/>
+    <sheet name="RR q=1" sheetId="11" r:id="rId10"/>
+    <sheet name="RR q=3" sheetId="12" r:id="rId11"/>
+    <sheet name="FCFSEX" sheetId="13" r:id="rId12"/>
+    <sheet name="SJFEX" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="35">
   <si>
     <t>Proceso</t>
   </si>
@@ -143,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +208,28 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -349,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -419,6 +445,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1232,6 +1266,2842 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AL18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="35" width="3.21875" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" customWidth="1"/>
+    <col min="37" max="43" width="6.21875" customWidth="1"/>
+    <col min="44" max="44" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="37">
+        <v>4</v>
+      </c>
+      <c r="N6" s="37">
+        <v>3</v>
+      </c>
+      <c r="O6" s="37">
+        <v>6</v>
+      </c>
+      <c r="P6" s="37">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="37">
+        <f>P6-M6</f>
+        <v>12</v>
+      </c>
+      <c r="R6" s="37">
+        <f>O6-M6</f>
+        <v>2</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="37">
+        <v>3</v>
+      </c>
+      <c r="N7" s="37">
+        <v>7</v>
+      </c>
+      <c r="O7" s="37">
+        <v>4</v>
+      </c>
+      <c r="P7" s="37">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="37">
+        <f t="shared" ref="Q7:Q10" si="0">P7-M7</f>
+        <v>18</v>
+      </c>
+      <c r="R7" s="37">
+        <f t="shared" ref="R7:R10" si="1">O7-M7</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="AL7">
+        <f>AVERAGE(Q6:Q10)</f>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="37">
+        <v>0</v>
+      </c>
+      <c r="N8" s="37">
+        <v>4</v>
+      </c>
+      <c r="O8" s="37">
+        <v>0</v>
+      </c>
+      <c r="P8" s="37">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="37">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R8" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <f>AVERAGE(R6:R10)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="37">
+        <v>7</v>
+      </c>
+      <c r="N9" s="37">
+        <v>2</v>
+      </c>
+      <c r="O9" s="37">
+        <v>10</v>
+      </c>
+      <c r="P9" s="37">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="37">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R9" s="37">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="4"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="37">
+        <v>1</v>
+      </c>
+      <c r="N10" s="37">
+        <v>5</v>
+      </c>
+      <c r="O10" s="37">
+        <v>1</v>
+      </c>
+      <c r="P10" s="37">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="37">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R10" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+    </row>
+    <row r="11" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+    </row>
+    <row r="12" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+    </row>
+    <row r="13" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35">
+        <v>0</v>
+      </c>
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="35">
+        <v>2</v>
+      </c>
+      <c r="E13" s="35">
+        <v>3</v>
+      </c>
+      <c r="F13" s="35">
+        <v>4</v>
+      </c>
+      <c r="G13" s="35">
+        <v>5</v>
+      </c>
+      <c r="H13" s="35">
+        <v>6</v>
+      </c>
+      <c r="I13" s="35">
+        <v>7</v>
+      </c>
+      <c r="J13" s="35">
+        <v>8</v>
+      </c>
+      <c r="K13" s="35">
+        <v>9</v>
+      </c>
+      <c r="L13" s="35">
+        <v>10</v>
+      </c>
+      <c r="M13" s="35">
+        <v>11</v>
+      </c>
+      <c r="N13" s="35">
+        <v>12</v>
+      </c>
+      <c r="O13" s="35">
+        <v>13</v>
+      </c>
+      <c r="P13" s="35">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>15</v>
+      </c>
+      <c r="R13" s="35">
+        <v>16</v>
+      </c>
+      <c r="S13" s="35">
+        <v>17</v>
+      </c>
+      <c r="T13" s="35">
+        <v>18</v>
+      </c>
+      <c r="U13" s="35">
+        <v>19</v>
+      </c>
+      <c r="V13" s="35">
+        <v>20</v>
+      </c>
+      <c r="W13" s="35">
+        <v>21</v>
+      </c>
+      <c r="X13" s="35">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="35">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="35">
+        <v>24</v>
+      </c>
+      <c r="AA13" s="35">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="35">
+        <v>26</v>
+      </c>
+      <c r="AC13" s="35">
+        <v>27</v>
+      </c>
+      <c r="AD13" s="35">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="35">
+        <v>29</v>
+      </c>
+      <c r="AF13" s="35">
+        <v>30</v>
+      </c>
+      <c r="AG13" s="35">
+        <v>31</v>
+      </c>
+      <c r="AH13" s="35">
+        <v>32</v>
+      </c>
+      <c r="AI13" s="35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="32"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+    </row>
+    <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+    </row>
+    <row r="16" spans="1:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+    </row>
+    <row r="17" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+    </row>
+    <row r="18" spans="2:35" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AL18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="35" width="3.21875" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" customWidth="1"/>
+    <col min="37" max="43" width="6.21875" customWidth="1"/>
+    <col min="44" max="44" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="37">
+        <v>4</v>
+      </c>
+      <c r="N6" s="37">
+        <v>3</v>
+      </c>
+      <c r="O6" s="37">
+        <v>10</v>
+      </c>
+      <c r="P6" s="37">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="37">
+        <f>P6-M6</f>
+        <v>9</v>
+      </c>
+      <c r="R6" s="37">
+        <f>O6-M6</f>
+        <v>6</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="37">
+        <v>3</v>
+      </c>
+      <c r="N7" s="37">
+        <v>7</v>
+      </c>
+      <c r="O7" s="37">
+        <v>6</v>
+      </c>
+      <c r="P7" s="37">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="37">
+        <f t="shared" ref="Q7:Q10" si="0">P7-M7</f>
+        <v>18</v>
+      </c>
+      <c r="R7" s="37">
+        <f t="shared" ref="R7:R10" si="1">O7-M7</f>
+        <v>3</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="AL7">
+        <f>AVERAGE(Q6:Q10)</f>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="37">
+        <v>0</v>
+      </c>
+      <c r="N8" s="37">
+        <v>4</v>
+      </c>
+      <c r="O8" s="37">
+        <v>9</v>
+      </c>
+      <c r="P8" s="37">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="37">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R8" s="37">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AL8">
+        <f>AVERAGE(R6:R10)</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="37">
+        <v>7</v>
+      </c>
+      <c r="N9" s="37">
+        <v>2</v>
+      </c>
+      <c r="O9" s="37">
+        <v>15</v>
+      </c>
+      <c r="P9" s="37">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="37">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R9" s="37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="4"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="37">
+        <v>1</v>
+      </c>
+      <c r="N10" s="37">
+        <v>5</v>
+      </c>
+      <c r="O10" s="37">
+        <v>3</v>
+      </c>
+      <c r="P10" s="37">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="37">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R10" s="37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+    </row>
+    <row r="11" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+    </row>
+    <row r="12" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+    </row>
+    <row r="13" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35">
+        <v>0</v>
+      </c>
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="35">
+        <v>2</v>
+      </c>
+      <c r="E13" s="35">
+        <v>3</v>
+      </c>
+      <c r="F13" s="35">
+        <v>4</v>
+      </c>
+      <c r="G13" s="35">
+        <v>5</v>
+      </c>
+      <c r="H13" s="35">
+        <v>6</v>
+      </c>
+      <c r="I13" s="35">
+        <v>7</v>
+      </c>
+      <c r="J13" s="35">
+        <v>8</v>
+      </c>
+      <c r="K13" s="35">
+        <v>9</v>
+      </c>
+      <c r="L13" s="35">
+        <v>10</v>
+      </c>
+      <c r="M13" s="35">
+        <v>11</v>
+      </c>
+      <c r="N13" s="35">
+        <v>12</v>
+      </c>
+      <c r="O13" s="35">
+        <v>13</v>
+      </c>
+      <c r="P13" s="35">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>15</v>
+      </c>
+      <c r="R13" s="35">
+        <v>16</v>
+      </c>
+      <c r="S13" s="35">
+        <v>17</v>
+      </c>
+      <c r="T13" s="35">
+        <v>18</v>
+      </c>
+      <c r="U13" s="35">
+        <v>19</v>
+      </c>
+      <c r="V13" s="35">
+        <v>20</v>
+      </c>
+      <c r="W13" s="35">
+        <v>21</v>
+      </c>
+      <c r="X13" s="35">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="35">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="35">
+        <v>24</v>
+      </c>
+      <c r="AA13" s="35">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="35">
+        <v>26</v>
+      </c>
+      <c r="AC13" s="35">
+        <v>27</v>
+      </c>
+      <c r="AD13" s="35">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="35">
+        <v>29</v>
+      </c>
+      <c r="AF13" s="35">
+        <v>30</v>
+      </c>
+      <c r="AG13" s="35">
+        <v>31</v>
+      </c>
+      <c r="AH13" s="35">
+        <v>32</v>
+      </c>
+      <c r="AI13" s="35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+    </row>
+    <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+    </row>
+    <row r="16" spans="1:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+    </row>
+    <row r="17" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+    </row>
+    <row r="18" spans="2:35" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AL18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="35" width="3.21875" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" customWidth="1"/>
+    <col min="37" max="43" width="6.21875" customWidth="1"/>
+    <col min="44" max="44" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="37">
+        <v>4</v>
+      </c>
+      <c r="N6" s="37">
+        <v>3</v>
+      </c>
+      <c r="O6" s="37">
+        <v>16</v>
+      </c>
+      <c r="P6" s="37">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="37">
+        <f>P6-M6</f>
+        <v>14</v>
+      </c>
+      <c r="R6" s="37">
+        <f>O6-M6</f>
+        <v>12</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="37">
+        <v>3</v>
+      </c>
+      <c r="N7" s="37">
+        <v>7</v>
+      </c>
+      <c r="O7" s="37">
+        <v>9</v>
+      </c>
+      <c r="P7" s="37">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="37">
+        <f t="shared" ref="Q7:Q10" si="0">P7-M7</f>
+        <v>13</v>
+      </c>
+      <c r="R7" s="37">
+        <f t="shared" ref="R7:R10" si="1">O7-M7</f>
+        <v>6</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="AL7">
+        <f>AVERAGE(Q6:Q10)</f>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="37">
+        <v>0</v>
+      </c>
+      <c r="N8" s="37">
+        <v>4</v>
+      </c>
+      <c r="O8" s="37">
+        <v>0</v>
+      </c>
+      <c r="P8" s="37">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R8" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <f>AVERAGE(R6:R10)</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="37">
+        <v>7</v>
+      </c>
+      <c r="N9" s="37">
+        <v>2</v>
+      </c>
+      <c r="O9" s="37">
+        <v>19</v>
+      </c>
+      <c r="P9" s="37">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="37">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R9" s="37">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="4"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="37">
+        <v>1</v>
+      </c>
+      <c r="N10" s="37">
+        <v>5</v>
+      </c>
+      <c r="O10" s="37">
+        <v>4</v>
+      </c>
+      <c r="P10" s="37">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="37">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R10" s="37">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+    </row>
+    <row r="11" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+    </row>
+    <row r="12" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+    </row>
+    <row r="13" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35">
+        <v>0</v>
+      </c>
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="35">
+        <v>2</v>
+      </c>
+      <c r="E13" s="35">
+        <v>3</v>
+      </c>
+      <c r="F13" s="35">
+        <v>4</v>
+      </c>
+      <c r="G13" s="35">
+        <v>5</v>
+      </c>
+      <c r="H13" s="35">
+        <v>6</v>
+      </c>
+      <c r="I13" s="35">
+        <v>7</v>
+      </c>
+      <c r="J13" s="35">
+        <v>8</v>
+      </c>
+      <c r="K13" s="35">
+        <v>9</v>
+      </c>
+      <c r="L13" s="35">
+        <v>10</v>
+      </c>
+      <c r="M13" s="35">
+        <v>11</v>
+      </c>
+      <c r="N13" s="35">
+        <v>12</v>
+      </c>
+      <c r="O13" s="35">
+        <v>13</v>
+      </c>
+      <c r="P13" s="35">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>15</v>
+      </c>
+      <c r="R13" s="35">
+        <v>16</v>
+      </c>
+      <c r="S13" s="35">
+        <v>17</v>
+      </c>
+      <c r="T13" s="35">
+        <v>18</v>
+      </c>
+      <c r="U13" s="35">
+        <v>19</v>
+      </c>
+      <c r="V13" s="35">
+        <v>20</v>
+      </c>
+      <c r="W13" s="35">
+        <v>21</v>
+      </c>
+      <c r="X13" s="35">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="35">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="35">
+        <v>24</v>
+      </c>
+      <c r="AA13" s="35">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="35">
+        <v>26</v>
+      </c>
+      <c r="AC13" s="35">
+        <v>27</v>
+      </c>
+      <c r="AD13" s="35">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="35">
+        <v>29</v>
+      </c>
+      <c r="AF13" s="35">
+        <v>30</v>
+      </c>
+      <c r="AG13" s="35">
+        <v>31</v>
+      </c>
+      <c r="AH13" s="35">
+        <v>32</v>
+      </c>
+      <c r="AI13" s="35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+    </row>
+    <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+    </row>
+    <row r="16" spans="1:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+    </row>
+    <row r="17" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+    </row>
+    <row r="18" spans="2:35" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AL18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="35" width="3.21875" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" customWidth="1"/>
+    <col min="37" max="43" width="6.21875" customWidth="1"/>
+    <col min="44" max="44" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="37">
+        <v>4</v>
+      </c>
+      <c r="N6" s="37">
+        <v>3</v>
+      </c>
+      <c r="O6" s="37">
+        <v>4</v>
+      </c>
+      <c r="P6" s="37">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="37">
+        <f>P6-M6</f>
+        <v>3</v>
+      </c>
+      <c r="R6" s="37">
+        <f>O6-M6</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="37">
+        <v>3</v>
+      </c>
+      <c r="N7" s="37">
+        <v>7</v>
+      </c>
+      <c r="O7" s="37">
+        <v>14</v>
+      </c>
+      <c r="P7" s="37">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="37">
+        <f t="shared" ref="Q7:Q10" si="0">P7-M7</f>
+        <v>18</v>
+      </c>
+      <c r="R7" s="37">
+        <f t="shared" ref="R7:R10" si="1">O7-M7</f>
+        <v>11</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="AL7">
+        <f>AVERAGE(Q6:Q10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="37">
+        <v>0</v>
+      </c>
+      <c r="N8" s="37">
+        <v>4</v>
+      </c>
+      <c r="O8" s="37">
+        <v>0</v>
+      </c>
+      <c r="P8" s="37">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R8" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <f>AVERAGE(R6:R10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="37">
+        <v>7</v>
+      </c>
+      <c r="N9" s="37">
+        <v>2</v>
+      </c>
+      <c r="O9" s="37">
+        <v>7</v>
+      </c>
+      <c r="P9" s="37">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R9" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="4"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="37">
+        <v>1</v>
+      </c>
+      <c r="N10" s="37">
+        <v>5</v>
+      </c>
+      <c r="O10" s="37">
+        <v>10</v>
+      </c>
+      <c r="P10" s="37">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="37">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R10" s="37">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+    </row>
+    <row r="11" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+    </row>
+    <row r="12" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+    </row>
+    <row r="13" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35">
+        <v>0</v>
+      </c>
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="35">
+        <v>2</v>
+      </c>
+      <c r="E13" s="35">
+        <v>3</v>
+      </c>
+      <c r="F13" s="35">
+        <v>4</v>
+      </c>
+      <c r="G13" s="35">
+        <v>5</v>
+      </c>
+      <c r="H13" s="35">
+        <v>6</v>
+      </c>
+      <c r="I13" s="35">
+        <v>7</v>
+      </c>
+      <c r="J13" s="35">
+        <v>8</v>
+      </c>
+      <c r="K13" s="35">
+        <v>9</v>
+      </c>
+      <c r="L13" s="35">
+        <v>10</v>
+      </c>
+      <c r="M13" s="35">
+        <v>11</v>
+      </c>
+      <c r="N13" s="35">
+        <v>12</v>
+      </c>
+      <c r="O13" s="35">
+        <v>13</v>
+      </c>
+      <c r="P13" s="35">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>15</v>
+      </c>
+      <c r="R13" s="35">
+        <v>16</v>
+      </c>
+      <c r="S13" s="35">
+        <v>17</v>
+      </c>
+      <c r="T13" s="35">
+        <v>18</v>
+      </c>
+      <c r="U13" s="35">
+        <v>19</v>
+      </c>
+      <c r="V13" s="35">
+        <v>20</v>
+      </c>
+      <c r="W13" s="35">
+        <v>21</v>
+      </c>
+      <c r="X13" s="35">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="35">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="35">
+        <v>24</v>
+      </c>
+      <c r="AA13" s="35">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="35">
+        <v>26</v>
+      </c>
+      <c r="AC13" s="35">
+        <v>27</v>
+      </c>
+      <c r="AD13" s="35">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="35">
+        <v>29</v>
+      </c>
+      <c r="AF13" s="35">
+        <v>30</v>
+      </c>
+      <c r="AG13" s="35">
+        <v>31</v>
+      </c>
+      <c r="AH13" s="35">
+        <v>32</v>
+      </c>
+      <c r="AI13" s="35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+    </row>
+    <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+    </row>
+    <row r="16" spans="1:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+    </row>
+    <row r="17" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+    </row>
+    <row r="18" spans="2:35" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AL17"/>
@@ -5046,7 +7916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
